--- a/02575_data_lsha.xlsx
+++ b/02575_data_lsha.xlsx
@@ -495,31 +495,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9800</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="C2">
-        <v>12600</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>14200</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="E2">
-        <v>16200</v>
+        <v>270</v>
       </c>
       <c r="F2">
-        <v>19000</v>
+        <v>316.6666666666666</v>
       </c>
       <c r="G2">
-        <v>22000</v>
+        <v>366.6666666666666</v>
       </c>
       <c r="H2">
-        <v>23600</v>
+        <v>393.3333333333334</v>
       </c>
       <c r="I2">
-        <v>25600</v>
+        <v>426.6666666666667</v>
       </c>
       <c r="J2">
-        <v>28400</v>
+        <v>473.3333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -527,31 +527,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7600</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="C3">
-        <v>9600</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>10700</v>
+        <v>178.3333333333333</v>
       </c>
       <c r="E3">
-        <v>12200</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="F3">
-        <v>14100</v>
+        <v>235</v>
       </c>
       <c r="G3">
-        <v>16100</v>
+        <v>268.3333333333334</v>
       </c>
       <c r="H3">
-        <v>17200</v>
+        <v>286.6666666666666</v>
       </c>
       <c r="I3">
-        <v>18700</v>
+        <v>311.6666666666666</v>
       </c>
       <c r="J3">
-        <v>20600</v>
+        <v>343.3333333333334</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -559,31 +559,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5300</v>
+        <v>88.33333333333334</v>
       </c>
       <c r="C4">
-        <v>6700</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="D4">
-        <v>7450</v>
+        <v>124.1666666666667</v>
       </c>
       <c r="E4">
-        <v>8450</v>
+        <v>140.8333333333333</v>
       </c>
       <c r="F4">
-        <v>9800</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="G4">
-        <v>11150</v>
+        <v>185.8333333333333</v>
       </c>
       <c r="H4">
-        <v>11950</v>
+        <v>199.1666666666667</v>
       </c>
       <c r="I4">
-        <v>12950</v>
+        <v>215.8333333333333</v>
       </c>
       <c r="J4">
-        <v>14300</v>
+        <v>238.3333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -591,31 +591,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4100</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="C5">
-        <v>5166.666666666667</v>
+        <v>86.11111111111111</v>
       </c>
       <c r="D5">
-        <v>5833.333333333333</v>
+        <v>97.22222222222221</v>
       </c>
       <c r="E5">
-        <v>6633.333333333333</v>
+        <v>110.5555555555556</v>
       </c>
       <c r="F5">
-        <v>7700</v>
+        <v>128.3333333333333</v>
       </c>
       <c r="G5">
-        <v>8800</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H5">
-        <v>9433.333333333334</v>
+        <v>157.2222222222222</v>
       </c>
       <c r="I5">
-        <v>10233.33333333333</v>
+        <v>170.5555555555556</v>
       </c>
       <c r="J5">
-        <v>11333.33333333333</v>
+        <v>188.8888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -623,31 +623,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3044.444444444444</v>
+        <v>50.74074074074075</v>
       </c>
       <c r="C6">
-        <v>3911.111111111111</v>
+        <v>65.18518518518519</v>
       </c>
       <c r="D6">
-        <v>4422.222222222223</v>
+        <v>73.7037037037037</v>
       </c>
       <c r="E6">
-        <v>5066.666666666667</v>
+        <v>84.44444444444444</v>
       </c>
       <c r="F6">
-        <v>5955.555555555556</v>
+        <v>99.25925925925927</v>
       </c>
       <c r="G6">
-        <v>6822.222222222223</v>
+        <v>113.7037037037037</v>
       </c>
       <c r="H6">
-        <v>7333.333333333333</v>
+        <v>122.2222222222222</v>
       </c>
       <c r="I6">
-        <v>8000</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="J6">
-        <v>8866.666666666666</v>
+        <v>147.7777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -655,31 +655,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2416.666666666667</v>
+        <v>40.27777777777778</v>
       </c>
       <c r="C7">
-        <v>3166.666666666667</v>
+        <v>52.77777777777778</v>
       </c>
       <c r="D7">
-        <v>3616.666666666667</v>
+        <v>60.27777777777778</v>
       </c>
       <c r="E7">
-        <v>4166.666666666667</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="F7">
-        <v>4916.666666666667</v>
+        <v>81.94444444444444</v>
       </c>
       <c r="G7">
-        <v>5666.666666666667</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="H7">
-        <v>6116.666666666667</v>
+        <v>101.9444444444444</v>
       </c>
       <c r="I7">
-        <v>6666.666666666667</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="J7">
-        <v>7416.666666666667</v>
+        <v>123.6111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -687,31 +687,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1755.555555555556</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="C8">
-        <v>2277.777777777778</v>
+        <v>37.96296296296296</v>
       </c>
       <c r="D8">
-        <v>2588.888888888889</v>
+        <v>43.14814814814815</v>
       </c>
       <c r="E8">
-        <v>2966.666666666667</v>
+        <v>49.44444444444444</v>
       </c>
       <c r="F8">
-        <v>3488.888888888889</v>
+        <v>58.14814814814815</v>
       </c>
       <c r="G8">
-        <v>4011.111111111111</v>
+        <v>66.85185185185186</v>
       </c>
       <c r="H8">
-        <v>4322.222222222223</v>
+        <v>72.03703703703704</v>
       </c>
       <c r="I8">
-        <v>4711.111111111111</v>
+        <v>78.51851851851852</v>
       </c>
       <c r="J8">
-        <v>5233.333333333333</v>
+        <v>87.22222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -719,31 +719,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1400</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="C9">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>2041.666666666667</v>
+        <v>34.02777777777778</v>
       </c>
       <c r="E9">
-        <v>2333.333333333333</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="F9">
-        <v>2741.666666666667</v>
+        <v>45.69444444444444</v>
       </c>
       <c r="G9">
-        <v>3141.666666666667</v>
+        <v>52.36111111111111</v>
       </c>
       <c r="H9">
-        <v>3383.333333333333</v>
+        <v>56.38888888888889</v>
       </c>
       <c r="I9">
-        <v>3675</v>
+        <v>61.25</v>
       </c>
       <c r="J9">
-        <v>4083.333333333333</v>
+        <v>68.05555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -751,31 +751,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1016.666666666667</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="C10">
-        <v>1294.444444444444</v>
+        <v>21.57407407407408</v>
       </c>
       <c r="D10">
-        <v>1461.111111111111</v>
+        <v>24.35185185185185</v>
       </c>
       <c r="E10">
-        <v>1666.666666666667</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="F10">
-        <v>1950</v>
+        <v>32.5</v>
       </c>
       <c r="G10">
-        <v>2227.777777777778</v>
+        <v>37.12962962962963</v>
       </c>
       <c r="H10">
-        <v>2394.444444444444</v>
+        <v>39.9074074074074</v>
       </c>
       <c r="I10">
-        <v>2600</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="J10">
-        <v>2883.333333333333</v>
+        <v>48.05555555555556</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -783,31 +783,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>808.3333333333334</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="C11">
-        <v>1025</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="D11">
-        <v>1154.166666666667</v>
+        <v>19.23611111111111</v>
       </c>
       <c r="E11">
-        <v>1312.5</v>
+        <v>21.875</v>
       </c>
       <c r="F11">
-        <v>1529.166666666667</v>
+        <v>25.48611111111111</v>
       </c>
       <c r="G11">
-        <v>1745.833333333333</v>
+        <v>29.09722222222222</v>
       </c>
       <c r="H11">
-        <v>1875</v>
+        <v>31.25</v>
       </c>
       <c r="I11">
-        <v>2033.333333333333</v>
+        <v>33.88888888888889</v>
       </c>
       <c r="J11">
-        <v>2250</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -815,31 +815,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>586.1111111111111</v>
+        <v>9.768518518518517</v>
       </c>
       <c r="C12">
-        <v>738.8888888888889</v>
+        <v>12.31481481481481</v>
       </c>
       <c r="D12">
-        <v>825</v>
+        <v>13.75</v>
       </c>
       <c r="E12">
-        <v>936.1111111111111</v>
+        <v>15.60185185185185</v>
       </c>
       <c r="F12">
-        <v>1088.888888888889</v>
+        <v>18.14814814814815</v>
       </c>
       <c r="G12">
-        <v>1238.888888888889</v>
+        <v>20.64814814814815</v>
       </c>
       <c r="H12">
-        <v>1327.777777777778</v>
+        <v>22.12962962962963</v>
       </c>
       <c r="I12">
-        <v>1438.888888888889</v>
+        <v>23.98148148148148</v>
       </c>
       <c r="J12">
-        <v>1588.888888888889</v>
+        <v>26.48148148148148</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -847,31 +847,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>425.9259259259259</v>
+        <v>7.098765432098766</v>
       </c>
       <c r="C13">
-        <v>531.4814814814815</v>
+        <v>8.858024691358024</v>
       </c>
       <c r="D13">
-        <v>592.5925925925926</v>
+        <v>9.876543209876543</v>
       </c>
       <c r="E13">
-        <v>670.3703703703703</v>
+        <v>11.17283950617284</v>
       </c>
       <c r="F13">
-        <v>774.074074074074</v>
+        <v>12.90123456790124</v>
       </c>
       <c r="G13">
-        <v>879.6296296296297</v>
+        <v>14.66049382716049</v>
       </c>
       <c r="H13">
-        <v>940.7407407407408</v>
+        <v>15.67901234567901</v>
       </c>
       <c r="I13">
-        <v>1018.518518518518</v>
+        <v>16.97530864197531</v>
       </c>
       <c r="J13">
-        <v>1122.222222222222</v>
+        <v>18.7037037037037</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -879,31 +879,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>340.2777777777778</v>
+        <v>5.671296296296297</v>
       </c>
       <c r="C14">
-        <v>420.8333333333333</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="D14">
-        <v>468.0555555555555</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="E14">
-        <v>527.7777777777778</v>
+        <v>8.796296296296296</v>
       </c>
       <c r="F14">
-        <v>608.3333333333334</v>
+        <v>10.13888888888889</v>
       </c>
       <c r="G14">
-        <v>690.2777777777778</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="H14">
-        <v>737.5</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="I14">
-        <v>797.2222222222222</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="J14">
-        <v>877.7777777777778</v>
+        <v>14.62962962962963</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -911,31 +911,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>246.2962962962963</v>
+        <v>4.104938271604938</v>
       </c>
       <c r="C15">
-        <v>302.7777777777778</v>
+        <v>5.046296296296297</v>
       </c>
       <c r="D15">
-        <v>336.1111111111111</v>
+        <v>5.601851851851852</v>
       </c>
       <c r="E15">
-        <v>377.7777777777778</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="F15">
-        <v>433.3333333333333</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="G15">
-        <v>489.8148148148148</v>
+        <v>8.163580246913579</v>
       </c>
       <c r="H15">
-        <v>523.1481481481482</v>
+        <v>8.719135802469136</v>
       </c>
       <c r="I15">
-        <v>563.8888888888889</v>
+        <v>9.398148148148149</v>
       </c>
       <c r="J15">
-        <v>620.3703703703703</v>
+        <v>10.33950617283951</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -943,31 +943,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>196.5277777777778</v>
+        <v>3.275462962962963</v>
       </c>
       <c r="C16">
-        <v>240.2777777777778</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="D16">
-        <v>265.2777777777778</v>
+        <v>4.421296296296297</v>
       </c>
       <c r="E16">
-        <v>297.2222222222222</v>
+        <v>4.953703703703703</v>
       </c>
       <c r="F16">
-        <v>340.9722222222222</v>
+        <v>5.68287037037037</v>
       </c>
       <c r="G16">
-        <v>384.7222222222222</v>
+        <v>6.412037037037037</v>
       </c>
       <c r="H16">
-        <v>409.7222222222222</v>
+        <v>6.828703703703704</v>
       </c>
       <c r="I16">
-        <v>441.6666666666667</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="J16">
-        <v>485.4166666666667</v>
+        <v>8.090277777777779</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -975,31 +975,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>119.4444444444444</v>
+        <v>1.990740740740741</v>
       </c>
       <c r="C17">
-        <v>145.1388888888889</v>
+        <v>2.418981481481481</v>
       </c>
       <c r="D17">
-        <v>160.4166666666667</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="E17">
-        <v>179.5138888888889</v>
+        <v>2.991898148148148</v>
       </c>
       <c r="F17">
-        <v>205.5555555555555</v>
+        <v>3.425925925925926</v>
       </c>
       <c r="G17">
-        <v>231.5972222222222</v>
+        <v>3.859953703703703</v>
       </c>
       <c r="H17">
-        <v>246.875</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="I17">
-        <v>265.9722222222222</v>
+        <v>4.43287037037037</v>
       </c>
       <c r="J17">
-        <v>291.6666666666667</v>
+        <v>4.861111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1007,31 +1007,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>89.12037037037037</v>
+        <v>1.48533950617284</v>
       </c>
       <c r="C18">
-        <v>108.1018518518518</v>
+        <v>1.801697530864197</v>
       </c>
       <c r="D18">
-        <v>119.212962962963</v>
+        <v>1.986882716049383</v>
       </c>
       <c r="E18">
-        <v>133.1018518518518</v>
+        <v>2.218364197530864</v>
       </c>
       <c r="F18">
-        <v>152.0833333333333</v>
+        <v>2.534722222222222</v>
       </c>
       <c r="G18">
-        <v>171.0648148148148</v>
+        <v>2.85108024691358</v>
       </c>
       <c r="H18">
-        <v>182.1759259259259</v>
+        <v>3.036265432098765</v>
       </c>
       <c r="I18">
-        <v>196.0648148148148</v>
+        <v>3.267746913580247</v>
       </c>
       <c r="J18">
-        <v>215.0462962962963</v>
+        <v>3.584104938271605</v>
       </c>
     </row>
   </sheetData>

--- a/02575_data_lsha.xlsx
+++ b/02575_data_lsha.xlsx
@@ -14,87 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>HN_001A</t>
-  </si>
-  <si>
-    <t>HN_002A</t>
-  </si>
-  <si>
-    <t>HN_003A</t>
-  </si>
-  <si>
-    <t>HN_005A</t>
-  </si>
-  <si>
-    <t>HN_010A</t>
-  </si>
-  <si>
-    <t>HN_020A</t>
-  </si>
-  <si>
-    <t>HN_030A</t>
-  </si>
-  <si>
-    <t>HN_050A</t>
-  </si>
-  <si>
-    <t>HN_100A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>precipitation_time / min</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>0090</t>
-  </si>
-  <si>
-    <t>0120</t>
-  </si>
-  <si>
-    <t>0180</t>
-  </si>
-  <si>
-    <t>0240</t>
-  </si>
-  <si>
-    <t>0360</t>
-  </si>
-  <si>
-    <t>0540</t>
-  </si>
-  <si>
-    <t>0720</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>2880</t>
-  </si>
-  <si>
-    <t>4320</t>
   </si>
 </sst>
 </file>
@@ -460,39 +382,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="1">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>163.3333333333333</v>
@@ -523,8 +445,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>126.6666666666667</v>
@@ -555,8 +477,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="1">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>88.33333333333334</v>
@@ -587,8 +509,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="1">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>68.33333333333333</v>
@@ -619,8 +541,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="1">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>50.74074074074075</v>
@@ -651,8 +573,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" s="1">
+        <v>60</v>
       </c>
       <c r="B7">
         <v>40.27777777777778</v>
@@ -683,8 +605,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+      <c r="A8" s="1">
+        <v>90</v>
       </c>
       <c r="B8">
         <v>29.25925925925926</v>
@@ -715,8 +637,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+      <c r="A9" s="1">
+        <v>120</v>
       </c>
       <c r="B9">
         <v>23.33333333333333</v>
@@ -747,8 +669,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+      <c r="A10" s="1">
+        <v>180</v>
       </c>
       <c r="B10">
         <v>16.94444444444444</v>
@@ -779,8 +701,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>240</v>
       </c>
       <c r="B11">
         <v>13.47222222222222</v>
@@ -811,8 +733,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+      <c r="A12" s="1">
+        <v>360</v>
       </c>
       <c r="B12">
         <v>9.768518518518517</v>
@@ -843,8 +765,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
+      <c r="A13" s="1">
+        <v>540</v>
       </c>
       <c r="B13">
         <v>7.098765432098766</v>
@@ -875,8 +797,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="1">
+        <v>720</v>
       </c>
       <c r="B14">
         <v>5.671296296296297</v>
@@ -907,8 +829,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="1">
+        <v>1080</v>
       </c>
       <c r="B15">
         <v>4.104938271604938</v>
@@ -939,8 +861,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="1">
+        <v>1440</v>
       </c>
       <c r="B16">
         <v>3.275462962962963</v>
@@ -971,8 +893,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="1">
+        <v>2880</v>
       </c>
       <c r="B17">
         <v>1.990740740740741</v>
@@ -1003,8 +925,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
+      <c r="A18" s="1">
+        <v>4320</v>
       </c>
       <c r="B18">
         <v>1.48533950617284</v>
